--- a/test.xlsx
+++ b/test.xlsx
@@ -15,17 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>zootovary</t>
   </si>
   <si>
-    <t>Advance (Эдванс) Cat Kitten корм для котят с курицей (3 кг)</t>
-  </si>
-  <si>
-    <t>Advance Sterilized Salmon Sensitive (1,5 кг)</t>
-  </si>
-  <si>
     <t>pethouse</t>
   </si>
   <si>
@@ -38,23 +32,62 @@
     <t>bluecrocodile</t>
   </si>
   <si>
-    <t>5328-1</t>
-  </si>
-  <si>
-    <t>5011-1</t>
+    <t>Advance Cat  Hairball (1,5 кг)</t>
+  </si>
+  <si>
+    <t>Advance Cat Chicken &amp; Rice (0,4 кг)</t>
+  </si>
+  <si>
+    <t>Advance Cat Chicken &amp; Rice (1,5 кг)</t>
+  </si>
+  <si>
+    <t>3044_54</t>
+  </si>
+  <si>
+    <t>3049_54</t>
+  </si>
+  <si>
+    <t>3304-1</t>
+  </si>
+  <si>
+    <t>3303-1</t>
+  </si>
+  <si>
+    <t>3303-2</t>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>paralapok</t>
+  </si>
+  <si>
+    <t>korm</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,18 +106,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -386,77 +445,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="3">
+        <v>306.58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2638</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>155376</v>
+      </c>
+      <c r="G2" s="1">
+        <v>497</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3011</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1812</v>
+      </c>
+      <c r="J2" s="1">
+        <v>52975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="3">
+        <v>89.82</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2616</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>273887</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2857</v>
+      </c>
+      <c r="J3" s="1">
+        <v>66636</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3157</v>
-      </c>
-      <c r="C2">
-        <v>9978</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>289615</v>
-      </c>
-      <c r="F2">
+      <c r="B4" s="3">
+        <v>290.75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2617</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>273884</v>
+      </c>
+      <c r="G4" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3043</v>
-      </c>
-      <c r="C3">
-        <v>2818</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>289616</v>
-      </c>
-      <c r="F3">
-        <v>483</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
